--- a/data/hotels_by_city/Dallas/Dallas_shard_133.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_133.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>699louises</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Checked out today.  I am a demanding customer.  Cody, Ray, and the team took great care of me and my family. Everyone was welcoming.  The amenities were better than expected.  Highly recommend staying here. Virtual high-five to the Marriott crew.More</t>
   </si>
   <si>
+    <t>Ryan T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r506318483-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>skibumal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r503580794-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Beachgirlcpat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r502636948-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>This location was great for what we needed. Close to family and near shopping and food. It met our needs great. A little disappointed that Marriott has done away with the offering of coffee in the mornings. I really think for what we spend to stay there we could get a cup of coffee in the morning. Just a thought. My only complaint and this is the 2nd Marriott this has happened at, is the shower tub drains really slow so your standing in water when your done with your shower. We have said something at both places. I don't know if it's a design fault or a drain problem. We tend to stay at Marriott's almost exclusively and like I said this is the second time that it has happened. Still over all very happy and satisfied with the service we find at Marriott in general.More</t>
   </si>
   <si>
+    <t>okiegigi2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r493553603-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>We stayed at the courtyard for a weekend baseball tournament. The family and I loved the room. It was spacious, clean, comfortable, and my 11-year-old grandson said the bed was great! I must agree with another reviewer that whoever was the idiot who installed refrigerators with a two hour cooling time limit in each room should be fired. Also, there is only one microwave in the entire hotel. The convince store is extremely overpriced. Bring your own snacks, just don't bring anything that needs to be heated or refrigerated!  The Bistro is very nice.  You can purchase breakfast, other meals and snacks.</t>
   </si>
   <si>
+    <t>MomTraveler_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r493224332-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>First of all, the young, Black man doing the evening check-in has a bright future ahead of him because he is one of the most professional people in the hotel industry I've seen..very enthusiastic and caring about the traveler. I've stayed here several times and enjoy coming here. The rooms are more upscale than you typically find with a Courtyard. My kids like their pool and outdoor court. It is close to family in the area and quite convenient. It is very quiet, so if you want to sleep...that will not be a problem. They keep their little convenience store fully-stocked just in case the bistro is closed. I have no complaints.More</t>
   </si>
   <si>
+    <t>pullmarkbird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r492580635-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>Ray at the front desk is the type of employee needed at all Marriott across the world, super friendly, knew his stuff. Making check ins super smooth. Give him a RAISE !!!!Rooms were very clean and nicely done, A/C cooled very well. Housekeeping was very good, and efficient.Now on to the CON, Who in the hell authorized 2hr time cooling limit mini fridge in the room, that person, ought to be FIRED in a heartbeat. If it is the franchise owner, that authorized it, word of advice lose the gator arms, and put regular mini fridges in the rooms. What do they think this is, an hourly motel, gees louise. You have to have an ice chest, especially if you have a family with young kids.More</t>
   </si>
   <si>
+    <t>Traveladi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r491271684-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t>My husband and I traveled to the Dallas area for a week.  I was initially concerned about staying at this hotel because of the location/distance.  The price and accommodations were the main reasons why we chose to remain at this hotel for our entire stay. Our room was clean upon arrival. I inspect the bed and bathroom everywhere I stay. I had no problem with either. Our king bed was very comfortable. The room is small but we were comfortable with just the two of us. There is not much in Midlothian but Cedar Hill is only about 15 minutes away and there was plenty of shopping and food/entertainment in that area.  Most places we needed to go were about 20 minutes away (sometimes 30) and the drive didn't feel long. We did not use the pool because it was outdoors and we prefer indoor.  My husband and I did shoot around on the basketball courts which was a nice option to have. I have to commend Ray at the front desk as he was always helpful! He made sure to ask about our stay and accommodate us when needed. We had no complaints. More</t>
   </si>
   <si>
+    <t>Rob S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r486015155-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>mmorgan72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r483985091-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -348,6 +378,9 @@
     <t>Ray at the front desk (Friday and Saturday night) was a wonderful source of information and was genuinely pleasant. He is the dream employee you really want to be the face of your company! Lobby was spacious and room was spotless. Pool was not heated, but it didn't matter. Location was good and hotel was very quiet during busy times. Would definitely stay here again!</t>
   </si>
   <si>
+    <t>Kristen A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r472158678-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -366,6 +399,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>EmilySmith23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r469745059-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -387,6 +423,9 @@
     <t>Well, I checked in with my co workers and the staff was very straight to the point and then the AGM not sure her name rudely interrupted the front desk clerk and went off on her about something not relevant to me checking in. I was already tired from traveling and I had to wait more until their conversation was over. The chief engineer was the only friendly person I ran across I believe his name was Jason. The next morning I went down for breakfast and the cook was a very large man and he looked very dirty was very rude to me. During my 3 days I was there I never saw the GM leave her office and the management never made an effort to talk to me. I would never stay here again! The staff is very stuck up and the rooms are okayMore</t>
   </si>
   <si>
+    <t>Tenderpaw01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r468522605-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -405,6 +444,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>agliradr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r465552296-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -423,6 +465,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>QuahogRob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r463722895-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -441,6 +486,9 @@
     <t>...with 1 tiny flaw. First the good, staff is unbelievably courteous, professional and just over all nice. The grounds and property are well maintained and really pleasant. The building is in good shape. The room was very quiet, clean and comfortable. Decent channel selection and nice size TV. Rooms are very modern and comfortably furnished. Food options beyond the cafe are a little drive. Not to far at all. My one minor issue is the shower. It was clean and large. Good water pressure. My issue is that you have to be IN the shower to turn it on and adjust the temperature. You will be standing in cold water (or scalding hot) until you find the correct temperature. I didn't like this. I have scars from 3rd degree burns and the area is sensitive with no real way to avoid the issue. Overall a really nice property with some really good people. (The bistro is really good.) More</t>
   </si>
   <si>
+    <t>Zygret Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r399669409-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -459,6 +507,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Joseph W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r373931734-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -477,6 +528,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Darlene C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r373851689-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -490,6 +544,9 @@
   </si>
   <si>
     <t>April 2016</t>
+  </si>
+  <si>
+    <t>Mary X</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r367817795-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
@@ -523,6 +580,9 @@
 Checking In: We checked in a little later (about 9pm). My room was ready and exactly what we had asked for. My check in was quick and easy. However, my tired and pregnant friend was not so lucky. She had reserved a King room, but by the time we checked in, there were no more King beds left. They kept telling us "first come first serve basis" but...One Night Stay. 2 Rooms for 4 peopleGood News first: The location was right off a main highway and easy to find because they had huge signs by the roads. The hotel itself was clean and smelled nice. The rooms itself were very roomy and the decor was very contemporary and streamlined. The beds were very comfortable - I expect nothing less of a new hotel. The A.C. unit worked well and not too noisy. The walls were thick enough that we didn't hear our neighbors or people outside our door very well. The bathroom was nice and clean. The shower water temperature was steady and had good pressure. Overall, the stay was a pleasant one. Now, the bad news and the reason for a minus star:I was really looking forward to this stay because it was such a new hotel. I had booked one room through the hotel itself and my friend booked her room through a 3rd party. We booked on the same night - 2 weeks prior.Checking In: We checked in a little later (about 9pm). My room was ready and exactly what we had asked for. My check in was quick and easy. However, my tired and pregnant friend was not so lucky. She had reserved a King room, but by the time we checked in, there were no more King beds left. They kept telling us "first come first serve basis" but that completely defeats the purpose of making reservations - regardless of whether or not we went through a 3rd party because it was 2 weeks prior. At this point, they were scrambling and managed to find a double queen room for my friend and her husband. I believe someone else's room was given away to my friends because my friend's room was probably given to someone who was there earlier - this has caused a terrible ripple effect. Apparently, the hotel computer system showed that she had a room ready for her based off her confirmation #, BUT they had sold everything and the same computer system couldn't provide a room number...............?!?Another minus star: What's worse, the hotel charged my friends the additional $40 up-charge for the bigger room, which they didn't want in the first place. The hotel should have covered that cost for the inconvenience and the error on the hotel's part. THE CUSTOMER SHOULD NEVER BE PENALIZED FOR THE BUSINESS'S MISTAKE. Although they resolved it 30 minutes later, it was a bad first impression. We were there for a wedding weekend and really just wanted to check in quickly and rest. It was unfortunate that the check in process was so time-consuming.More</t>
   </si>
   <si>
+    <t>spiketudor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r362538059-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -541,6 +601,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>H L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r358149587-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -562,6 +625,9 @@
     <t>I checked in around 3pm, the carpark was large and empty. My check in had to wait about five minutes as the one receptionist was taking a phone booking. In the meantime, i stood around to admire the very new and trendy reception and bristro area.My check in took no more than one minute and I request a 2 queen bed room on the upper  floor. I was given a room at the far end on the 4th floor. It was a very quiet room. I used the second bed to do some repacking of my bags- no bending down to floor level. I didn't disturbed the sheets of that bed.The room was spacious. Everything worked well, although the air conditioning control on the wall seemed to be stucked and I had to use a toothpick through a tiny hole on the side of the controls to reset it. It worked fine and very efficiently after that. The air flow was very good if not too fast across the normal seating position for the movable desk.The room was also very well insulated and bright. The wind was very strong outside the building, and I could hear only a light rattle from the windows now and then.I enjoyed my stay, worked late at the desk, slept till 7:30 and checked out.More</t>
   </si>
   <si>
+    <t>R and L B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r358019696-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -577,6 +643,9 @@
     <t>We heard this was a new hotel. I thought, "Clear out here in the country, far enough off of a main area highway at a small Texas town?". Boy howdy, was I pleasantly surprised! Did I say gorgeous? Gorgeous! The staff was consistently friendly, even as they worked the bugs out of their newly functioning guest computers in the lobby. Stylish rooms, thoughfully designed. I don't want to blow your own discovery of your room, but the bathroom's chic design made me think, "Huh!" in a good way. Super comfy bed. The best perk was the dedicated computer nook just for printing boarding passes. Awesome. And, oh, gorgeous.</t>
   </si>
   <si>
+    <t>Juan Carlos M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r356334070-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -590,6 +659,9 @@
   </si>
   <si>
     <t>I looked forward to stay at the brand new Marriott Courtyard Hotel in Midlothian, Texas. I love the new decor, room lay out and the new amenities are wonderful. However, as a Platinum member, I am used to get a quick free bottle of water offered or automatically upgrade me to a larger, nothing at all happened, there was no coffee available at the hotel bistro before 6.30am, for a conference and business hotel pretty late. Furthermore alcoholic drinks a very pricy (glas of red wine 16 $). Hotel is very good, area pretty lonely and quite. Suggestions: there are still  things to improve.</t>
+  </si>
+  <si>
+    <t>TexasTravelAgent_12</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r346148223-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
@@ -1115,43 +1187,47 @@
       <c r="A2" t="n">
         <v>64696</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127083</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1163,56 +1239,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64696</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>22463</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1226,50 +1306,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64696</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>127084</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -1287,41 +1371,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64696</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>127085</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -1340,50 +1428,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64696</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>127086</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1403,50 +1495,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64696</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>127087</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1466,50 +1562,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64696</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>127088</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1529,41 +1629,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64696</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>127089</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
@@ -1582,50 +1686,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64696</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>18696</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1645,50 +1753,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64696</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>127090</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1702,50 +1814,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64696</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>26916</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1759,50 +1875,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64696</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>127091</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1822,50 +1942,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64696</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>126570</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -1885,50 +2009,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64696</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>127092</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -1948,50 +2076,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64696</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127093</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2005,50 +2137,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64696</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>127094</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2068,50 +2204,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64696</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>6571</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2125,50 +2265,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64696</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>104268</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2188,50 +2332,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64696</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>127095</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2251,50 +2399,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64696</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>127096</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="O21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2312,50 +2464,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64696</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>106549</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O22" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2369,50 +2525,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64696</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>127097</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2430,50 +2590,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64696</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>127098</v>
+      </c>
+      <c r="C24" t="s">
+        <v>205</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2487,50 +2651,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64696</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127099</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2548,7 +2716,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_133.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_133.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>699louises</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
+    <t>08/17/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r573576782-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
@@ -189,9 +186,6 @@
     <t>Checked out today.  I am a demanding customer.  Cody, Ray, and the team took great care of me and my family. Everyone was welcoming.  The amenities were better than expected.  Highly recommend staying here. Virtual high-five to the Marriott crew.More</t>
   </si>
   <si>
-    <t>Ryan T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r506318483-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -213,9 +207,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>skibumal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r503580794-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>Beachgirlcpat</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r502636948-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
     <t>This location was great for what we needed. Close to family and near shopping and food. It met our needs great. A little disappointed that Marriott has done away with the offering of coffee in the mornings. I really think for what we spend to stay there we could get a cup of coffee in the morning. Just a thought. My only complaint and this is the 2nd Marriott this has happened at, is the shower tub drains really slow so your standing in water when your done with your shower. We have said something at both places. I don't know if it's a design fault or a drain problem. We tend to stay at Marriott's almost exclusively and like I said this is the second time that it has happened. Still over all very happy and satisfied with the service we find at Marriott in general.More</t>
   </si>
   <si>
-    <t>okiegigi2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r493553603-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -273,9 +258,6 @@
     <t>We stayed at the courtyard for a weekend baseball tournament. The family and I loved the room. It was spacious, clean, comfortable, and my 11-year-old grandson said the bed was great! I must agree with another reviewer that whoever was the idiot who installed refrigerators with a two hour cooling time limit in each room should be fired. Also, there is only one microwave in the entire hotel. The convince store is extremely overpriced. Bring your own snacks, just don't bring anything that needs to be heated or refrigerated!  The Bistro is very nice.  You can purchase breakfast, other meals and snacks.</t>
   </si>
   <si>
-    <t>MomTraveler_11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r493224332-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -297,9 +279,6 @@
     <t>First of all, the young, Black man doing the evening check-in has a bright future ahead of him because he is one of the most professional people in the hotel industry I've seen..very enthusiastic and caring about the traveler. I've stayed here several times and enjoy coming here. The rooms are more upscale than you typically find with a Courtyard. My kids like their pool and outdoor court. It is close to family in the area and quite convenient. It is very quiet, so if you want to sleep...that will not be a problem. They keep their little convenience store fully-stocked just in case the bistro is closed. I have no complaints.More</t>
   </si>
   <si>
-    <t>pullmarkbird</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r492580635-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -318,9 +297,6 @@
     <t>Ray at the front desk is the type of employee needed at all Marriott across the world, super friendly, knew his stuff. Making check ins super smooth. Give him a RAISE !!!!Rooms were very clean and nicely done, A/C cooled very well. Housekeeping was very good, and efficient.Now on to the CON, Who in the hell authorized 2hr time cooling limit mini fridge in the room, that person, ought to be FIRED in a heartbeat. If it is the franchise owner, that authorized it, word of advice lose the gator arms, and put regular mini fridges in the rooms. What do they think this is, an hourly motel, gees louise. You have to have an ice chest, especially if you have a family with young kids.More</t>
   </si>
   <si>
-    <t>Traveladi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r491271684-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -339,9 +315,6 @@
     <t>My husband and I traveled to the Dallas area for a week.  I was initially concerned about staying at this hotel because of the location/distance.  The price and accommodations were the main reasons why we chose to remain at this hotel for our entire stay. Our room was clean upon arrival. I inspect the bed and bathroom everywhere I stay. I had no problem with either. Our king bed was very comfortable. The room is small but we were comfortable with just the two of us. There is not much in Midlothian but Cedar Hill is only about 15 minutes away and there was plenty of shopping and food/entertainment in that area.  Most places we needed to go were about 20 minutes away (sometimes 30) and the drive didn't feel long. We did not use the pool because it was outdoors and we prefer indoor.  My husband and I did shoot around on the basketball courts which was a nice option to have. I have to commend Ray at the front desk as he was always helpful! He made sure to ask about our stay and accommodate us when needed. We had no complaints. More</t>
   </si>
   <si>
-    <t>Rob S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r486015155-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -360,9 +333,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>mmorgan72</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r483985091-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -378,9 +348,6 @@
     <t>Ray at the front desk (Friday and Saturday night) was a wonderful source of information and was genuinely pleasant. He is the dream employee you really want to be the face of your company! Lobby was spacious and room was spotless. Pool was not heated, but it didn't matter. Location was good and hotel was very quiet during busy times. Would definitely stay here again!</t>
   </si>
   <si>
-    <t>Kristen A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r472158678-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -399,9 +366,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>EmilySmith23</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r469745059-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -423,9 +387,6 @@
     <t>Well, I checked in with my co workers and the staff was very straight to the point and then the AGM not sure her name rudely interrupted the front desk clerk and went off on her about something not relevant to me checking in. I was already tired from traveling and I had to wait more until their conversation was over. The chief engineer was the only friendly person I ran across I believe his name was Jason. The next morning I went down for breakfast and the cook was a very large man and he looked very dirty was very rude to me. During my 3 days I was there I never saw the GM leave her office and the management never made an effort to talk to me. I would never stay here again! The staff is very stuck up and the rooms are okayMore</t>
   </si>
   <si>
-    <t>Tenderpaw01</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r468522605-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -444,9 +405,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>agliradr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r465552296-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -465,9 +423,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>QuahogRob</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r463722895-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -486,7 +441,91 @@
     <t>...with 1 tiny flaw. First the good, staff is unbelievably courteous, professional and just over all nice. The grounds and property are well maintained and really pleasant. The building is in good shape. The room was very quiet, clean and comfortable. Decent channel selection and nice size TV. Rooms are very modern and comfortably furnished. Food options beyond the cafe are a little drive. Not to far at all. My one minor issue is the shower. It was clean and large. Good water pressure. My issue is that you have to be IN the shower to turn it on and adjust the temperature. You will be standing in cold water (or scalding hot) until you find the correct temperature. I didn't like this. I have scars from 3rd degree burns and the area is sensitive with no real way to avoid the issue. Overall a really nice property with some really good people. (The bistro is really good.) More</t>
   </si>
   <si>
-    <t>Zygret Z</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r447200197-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
+  </si>
+  <si>
+    <t>447200197</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Nice Facility &amp; Staff</t>
+  </si>
+  <si>
+    <t>Stayed over the weekend while visiting family - the hotel is very nice, clean and the staff was very helpful. The Bistro in the lobby had some great food and a varied menu for a small operation (plus Starbuck's coffee).</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r426497730-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
+  </si>
+  <si>
+    <t>426497730</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Almost there</t>
+  </si>
+  <si>
+    <t>There were a few bumpy transactions that management worked out for us including compensation for the inability to fix the volume on our TV. This is a new facility, open only 9 months, and some of it has not been finished. Beds were comfortable., the room was large, in room coffee was horrible,  and the staff was fairly attentive. Used as a place to stop and rear, this is a great value.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r408236737-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
+  </si>
+  <si>
+    <t>408236737</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Dallas vaction stay</t>
+  </si>
+  <si>
+    <t>Great place to stay, but a about 45 minutes away from Dallas love field. There no public transportation from the airport to hotel, so you have to rent a car. The room we stayed was great, beds were great and there are USB chargers built into the wall next to your bed which make it easy to charge your phome or laptop, while sitting in bed. the hotel is in a very quiet area, off a side street in a small town.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r406816856-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
+  </si>
+  <si>
+    <t>406816856</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Great stay, Restful night sleep</t>
+  </si>
+  <si>
+    <t>Have stayed at this hotel several times this summer while my husband was traveling on busy.m Very new, modern fixtures.  Very comfortable bed, and the rooms are very quiet There is a nice computer area in the room which provides a place to spread out and work.  Exercise room is well equipped if you need it.  Nice choices for breakfast sandwiches and Starbucks Coffee.  Will continue to stay here as we travel through the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r406332344-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
+  </si>
+  <si>
+    <t>406332344</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Very nice New hotel with Excellent Friendly Service</t>
+  </si>
+  <si>
+    <t>Great Hotel in the Southern area of Dallas.  Brand New and with very friendly staff.  Convenient to visit the Southern area of Dallas and Fort Worth.   Hotel with great Gym and outdoor pool.  Easy Access from the highway.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r399669409-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
@@ -504,12 +543,6 @@
     <t>Clean, quiet, a/c quiet, W/D $2 ea, low water flow on 3rd floor (might be water saving devices),solid 802.11n wifi 130 mbps-did not notice any slowdown playing a 192 bit stream. Can't seeTV from bed (very odd positioning, makes the TV sort of useless), lighting ok, nice walk in shower, breakfast $$ (no free), no free coffee except in room garbage, Starbucks in lobby $$. Staff was great, plenty parking, lots of food &amp; gasoline near by at Mid pkwy &amp; main street &amp; downtown, $107 plus $14 for the gov, Jul 2016.</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
-    <t>Joseph W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r373931734-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -528,9 +561,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Darlene C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r373851689-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -544,9 +574,6 @@
   </si>
   <si>
     <t>April 2016</t>
-  </si>
-  <si>
-    <t>Mary X</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r367817795-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
@@ -580,9 +607,6 @@
 Checking In: We checked in a little later (about 9pm). My room was ready and exactly what we had asked for. My check in was quick and easy. However, my tired and pregnant friend was not so lucky. She had reserved a King room, but by the time we checked in, there were no more King beds left. They kept telling us "first come first serve basis" but...One Night Stay. 2 Rooms for 4 peopleGood News first: The location was right off a main highway and easy to find because they had huge signs by the roads. The hotel itself was clean and smelled nice. The rooms itself were very roomy and the decor was very contemporary and streamlined. The beds were very comfortable - I expect nothing less of a new hotel. The A.C. unit worked well and not too noisy. The walls were thick enough that we didn't hear our neighbors or people outside our door very well. The bathroom was nice and clean. The shower water temperature was steady and had good pressure. Overall, the stay was a pleasant one. Now, the bad news and the reason for a minus star:I was really looking forward to this stay because it was such a new hotel. I had booked one room through the hotel itself and my friend booked her room through a 3rd party. We booked on the same night - 2 weeks prior.Checking In: We checked in a little later (about 9pm). My room was ready and exactly what we had asked for. My check in was quick and easy. However, my tired and pregnant friend was not so lucky. She had reserved a King room, but by the time we checked in, there were no more King beds left. They kept telling us "first come first serve basis" but that completely defeats the purpose of making reservations - regardless of whether or not we went through a 3rd party because it was 2 weeks prior. At this point, they were scrambling and managed to find a double queen room for my friend and her husband. I believe someone else's room was given away to my friends because my friend's room was probably given to someone who was there earlier - this has caused a terrible ripple effect. Apparently, the hotel computer system showed that she had a room ready for her based off her confirmation #, BUT they had sold everything and the same computer system couldn't provide a room number...............?!?Another minus star: What's worse, the hotel charged my friends the additional $40 up-charge for the bigger room, which they didn't want in the first place. The hotel should have covered that cost for the inconvenience and the error on the hotel's part. THE CUSTOMER SHOULD NEVER BE PENALIZED FOR THE BUSINESS'S MISTAKE. Although they resolved it 30 minutes later, it was a bad first impression. We were there for a wedding weekend and really just wanted to check in quickly and rest. It was unfortunate that the check in process was so time-consuming.More</t>
   </si>
   <si>
-    <t>spiketudor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r362538059-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -601,9 +625,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>H L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r358149587-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -625,9 +646,6 @@
     <t>I checked in around 3pm, the carpark was large and empty. My check in had to wait about five minutes as the one receptionist was taking a phone booking. In the meantime, i stood around to admire the very new and trendy reception and bristro area.My check in took no more than one minute and I request a 2 queen bed room on the upper  floor. I was given a room at the far end on the 4th floor. It was a very quiet room. I used the second bed to do some repacking of my bags- no bending down to floor level. I didn't disturbed the sheets of that bed.The room was spacious. Everything worked well, although the air conditioning control on the wall seemed to be stucked and I had to use a toothpick through a tiny hole on the side of the controls to reset it. It worked fine and very efficiently after that. The air flow was very good if not too fast across the normal seating position for the movable desk.The room was also very well insulated and bright. The wind was very strong outside the building, and I could hear only a light rattle from the windows now and then.I enjoyed my stay, worked late at the desk, slept till 7:30 and checked out.More</t>
   </si>
   <si>
-    <t>R and L B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r358019696-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -643,9 +661,6 @@
     <t>We heard this was a new hotel. I thought, "Clear out here in the country, far enough off of a main area highway at a small Texas town?". Boy howdy, was I pleasantly surprised! Did I say gorgeous? Gorgeous! The staff was consistently friendly, even as they worked the bugs out of their newly functioning guest computers in the lobby. Stylish rooms, thoughfully designed. I don't want to blow your own discovery of your room, but the bathroom's chic design made me think, "Huh!" in a good way. Super comfy bed. The best perk was the dedicated computer nook just for printing boarding passes. Awesome. And, oh, gorgeous.</t>
   </si>
   <si>
-    <t>Juan Carlos M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r356334070-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -659,9 +674,6 @@
   </si>
   <si>
     <t>I looked forward to stay at the brand new Marriott Courtyard Hotel in Midlothian, Texas. I love the new decor, room lay out and the new amenities are wonderful. However, as a Platinum member, I am used to get a quick free bottle of water offered or automatically upgrade me to a larger, nothing at all happened, there was no coffee available at the hotel bistro before 6.30am, for a conference and business hotel pretty late. Furthermore alcoholic drinks a very pricy (glas of red wine 16 $). Hotel is very good, area pretty lonely and quite. Suggestions: there are still  things to improve.</t>
-  </si>
-  <si>
-    <t>TexasTravelAgent_12</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d8956551-r346148223-Courtyard_Dallas_Midlothian_at_Midlothian_Conference_Center-Midlothian_Texas.html</t>
@@ -1187,47 +1199,43 @@
       <c r="A2" t="n">
         <v>64696</v>
       </c>
-      <c r="B2" t="n">
-        <v>127083</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1239,60 +1247,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64696</v>
       </c>
-      <c r="B3" t="n">
-        <v>22463</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1306,54 +1310,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64696</v>
       </c>
-      <c r="B4" t="n">
-        <v>127084</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -1371,45 +1371,41 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64696</v>
       </c>
-      <c r="B5" t="n">
-        <v>127085</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
         <v>73</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -1428,54 +1424,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64696</v>
       </c>
-      <c r="B6" t="n">
-        <v>127086</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
         <v>79</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1495,54 +1487,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64696</v>
       </c>
-      <c r="B7" t="n">
-        <v>127087</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1562,54 +1550,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64696</v>
       </c>
-      <c r="B8" t="n">
-        <v>127088</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1629,45 +1613,41 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64696</v>
       </c>
-      <c r="B9" t="n">
-        <v>127089</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
@@ -1686,54 +1666,50 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64696</v>
       </c>
-      <c r="B10" t="n">
-        <v>18696</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1753,54 +1729,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64696</v>
       </c>
-      <c r="B11" t="n">
-        <v>127090</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1814,54 +1786,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64696</v>
       </c>
-      <c r="B12" t="n">
-        <v>26916</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1875,54 +1843,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64696</v>
       </c>
-      <c r="B13" t="n">
-        <v>127091</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1942,54 +1906,50 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64696</v>
       </c>
-      <c r="B14" t="n">
-        <v>126570</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2009,54 +1969,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64696</v>
       </c>
-      <c r="B15" t="n">
-        <v>127092</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2076,54 +2032,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64696</v>
       </c>
-      <c r="B16" t="n">
-        <v>127093</v>
-      </c>
-      <c r="C16" t="s">
-        <v>149</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2137,63 +2089,59 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64696</v>
       </c>
-      <c r="B17" t="n">
-        <v>127094</v>
-      </c>
-      <c r="C17" t="s">
-        <v>156</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2204,54 +2152,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64696</v>
       </c>
-      <c r="B18" t="n">
-        <v>6571</v>
-      </c>
-      <c r="C18" t="s">
-        <v>163</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2265,66 +2209,60 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64696</v>
       </c>
-      <c r="B19" t="n">
-        <v>104268</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2332,66 +2270,62 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64696</v>
       </c>
-      <c r="B20" t="n">
-        <v>127095</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="O20" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2399,61 +2333,59 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64696</v>
       </c>
-      <c r="B21" t="n">
-        <v>127096</v>
-      </c>
-      <c r="C21" t="s">
-        <v>184</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O21" t="s">
-        <v>190</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2464,251 +2396,245 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64696</v>
       </c>
-      <c r="B22" t="n">
-        <v>106549</v>
-      </c>
-      <c r="C22" t="s">
-        <v>191</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="O22" t="s">
-        <v>190</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64696</v>
       </c>
-      <c r="B23" t="n">
-        <v>127097</v>
-      </c>
-      <c r="C23" t="s">
-        <v>199</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="O23" t="s">
-        <v>113</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64696</v>
       </c>
-      <c r="B24" t="n">
-        <v>127098</v>
-      </c>
-      <c r="C24" t="s">
-        <v>205</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="O24" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64696</v>
       </c>
-      <c r="B25" t="n">
-        <v>127099</v>
-      </c>
-      <c r="C25" t="s">
-        <v>211</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="O25" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2716,7 +2642,304 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64696</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" t="s">
+        <v>198</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64696</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" t="s">
+        <v>202</v>
+      </c>
+      <c r="L27" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>204</v>
+      </c>
+      <c r="O27" t="s">
+        <v>198</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64696</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>204</v>
+      </c>
+      <c r="O28" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64696</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>204</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64696</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
         <v>218</v>
+      </c>
+      <c r="K30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
